--- a/Logins.xlsx
+++ b/Logins.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29029"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\MSIS CMU\BIS 698\Complete Project\RBAC\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\GitHubDesktop\RoleBasedAccessControl-Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47AF4B26-5939-4BAC-821F-222C50C62A5A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9AEF7DBB-76B4-4B40-9BF5-57F355C98518}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="5250" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -398,18 +398,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C12"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="250" zoomScaleNormal="250" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="250" zoomScaleNormal="250" workbookViewId="0">
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="32" customWidth="1"/>
     <col min="2" max="2" width="13" customWidth="1"/>
-    <col min="3" max="3" width="13.5703125" customWidth="1"/>
+    <col min="3" max="3" width="13.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -420,7 +420,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
@@ -431,7 +431,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
@@ -442,7 +442,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
@@ -453,7 +453,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
         <v>5</v>
       </c>
@@ -464,7 +464,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A7" s="1" t="s">
         <v>6</v>
       </c>
@@ -475,7 +475,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A8" s="1" t="s">
         <v>7</v>
       </c>
@@ -486,7 +486,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A9" s="1" t="s">
         <v>8</v>
       </c>
@@ -497,7 +497,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A10" s="1" t="s">
         <v>9</v>
       </c>
@@ -508,7 +508,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A11" s="1" t="s">
         <v>10</v>
       </c>
@@ -519,7 +519,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A12" s="1" t="s">
         <v>11</v>
       </c>
